--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Proyecto\Aplicacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931AD5CF-34AC-452A-A9AA-950C3DFBEAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4139DE7-D07C-4B9C-B1CA-87BDD82934DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
@@ -3552,8 +3552,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3561,11 +3585,23 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3576,17 +3612,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3594,16 +3621,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3613,42 +3637,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3663,32 +3651,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3696,203 +3720,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3933,6 +3768,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3945,40 +3792,193 @@
     <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -29457,8 +29457,8 @@
   </sheetPr>
   <dimension ref="A2:W316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29482,7 +29482,7 @@
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="42"/>
-      <c r="C2" s="198"/>
+      <c r="C2" s="213"/>
       <c r="D2" s="40" t="s">
         <v>119</v>
       </c>
@@ -29496,14 +29496,14 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
-      <c r="C3" s="198"/>
+      <c r="C3" s="213"/>
       <c r="D3" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="198"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="40" t="s">
         <v>121</v>
       </c>
@@ -29512,7 +29512,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="198"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="40" t="s">
         <v>127</v>
       </c>
@@ -29533,30 +29533,30 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
       <c r="H7" s="39"/>
-      <c r="J7" s="211" t="s">
+      <c r="J7" s="207" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
     </row>
     <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>0</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="197"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -29601,10 +29601,10 @@
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="197"/>
+      <c r="C9" s="192"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -29637,10 +29637,10 @@
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="192" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="197"/>
+      <c r="C10" s="192"/>
       <c r="D10" s="9" t="s">
         <v>91</v>
       </c>
@@ -29678,10 +29678,10 @@
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="197"/>
+      <c r="C11" s="192"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -29714,10 +29714,10 @@
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="208" t="s">
+      <c r="B12" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="208"/>
+      <c r="C12" s="209"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -29743,11 +29743,11 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="208" t="str">
+      <c r="B13" s="209" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="208"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="8" t="s">
         <v>107</v>
       </c>
@@ -29785,10 +29785,10 @@
       <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="197" t="s">
+      <c r="B14" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="197"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -29826,10 +29826,10 @@
       <c r="A15" s="12">
         <v>6</v>
       </c>
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="208"/>
+      <c r="C15" s="209"/>
       <c r="D15" s="9" t="s">
         <v>104</v>
       </c>
@@ -29861,10 +29861,10 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="208" t="s">
+      <c r="B16" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="208"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="9" t="s">
         <v>104</v>
       </c>
@@ -29895,10 +29895,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="208"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="9" t="s">
         <v>104</v>
       </c>
@@ -29934,10 +29934,10 @@
       <c r="A18" s="12">
         <v>7</v>
       </c>
-      <c r="B18" s="197" t="s">
+      <c r="B18" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="197"/>
+      <c r="C18" s="192"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -29970,10 +29970,10 @@
       <c r="A19" s="12">
         <v>8</v>
       </c>
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="197"/>
+      <c r="C19" s="192"/>
       <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
@@ -30006,10 +30006,10 @@
       <c r="A20" s="12">
         <v>9</v>
       </c>
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="197"/>
+      <c r="C20" s="192"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -30042,10 +30042,10 @@
       <c r="A21" s="12">
         <v>10</v>
       </c>
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="197"/>
+      <c r="C21" s="192"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -30130,10 +30130,10 @@
       <c r="A24" s="12">
         <v>11</v>
       </c>
-      <c r="B24" s="197" t="s">
+      <c r="B24" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="197"/>
+      <c r="C24" s="192"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -30168,10 +30168,10 @@
       <c r="A25" s="12">
         <v>12</v>
       </c>
-      <c r="B25" s="200" t="s">
+      <c r="B25" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="201"/>
+      <c r="C25" s="215"/>
       <c r="D25" s="28" t="s">
         <v>164</v>
       </c>
@@ -30206,10 +30206,10 @@
       <c r="A26" s="12">
         <v>13</v>
       </c>
-      <c r="B26" s="197" t="s">
+      <c r="B26" s="192" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="197"/>
+      <c r="C26" s="192"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -30244,10 +30244,10 @@
       <c r="A27" s="12">
         <v>14</v>
       </c>
-      <c r="B27" s="200" t="s">
+      <c r="B27" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="201"/>
+      <c r="C27" s="215"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -30280,10 +30280,10 @@
       <c r="A28" s="12">
         <v>15</v>
       </c>
-      <c r="B28" s="200" t="s">
+      <c r="B28" s="214" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="201"/>
+      <c r="C28" s="215"/>
       <c r="D28" s="9" t="s">
         <v>74</v>
       </c>
@@ -30354,10 +30354,10 @@
       <c r="A30" s="12">
         <v>17</v>
       </c>
-      <c r="B30" s="197" t="s">
+      <c r="B30" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="197"/>
+      <c r="C30" s="192"/>
       <c r="D30" s="9" t="s">
         <v>83</v>
       </c>
@@ -30389,8 +30389,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -30400,14 +30400,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="218" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
       <c r="H32" s="64"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -30418,10 +30418,10 @@
       <c r="A33" s="12">
         <v>18</v>
       </c>
-      <c r="B33" s="202" t="s">
+      <c r="B33" s="217" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="202"/>
+      <c r="C33" s="217"/>
       <c r="D33" s="169" t="s">
         <v>275</v>
       </c>
@@ -30442,10 +30442,10 @@
       <c r="A34" s="12">
         <v>19</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="185" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="186"/>
       <c r="D34" s="169" t="s">
         <v>276</v>
       </c>
@@ -30492,98 +30492,98 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="197" t="s">
+      <c r="B37" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="197"/>
+      <c r="C37" s="192"/>
       <c r="D37" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="310">
+      <c r="F37" s="176">
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="188"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="205">
+      <c r="G37" s="197"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="210">
         <v>1</v>
       </c>
-      <c r="J37" s="206"/>
-      <c r="K37" s="206"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="206"/>
-      <c r="N37" s="207"/>
-      <c r="O37" s="197" t="s">
+      <c r="J37" s="211"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="P37" s="197"/>
+      <c r="P37" s="192"/>
     </row>
     <row r="38" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="199" t="s">
+      <c r="B38" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="199"/>
+      <c r="C38" s="189"/>
       <c r="D38" s="44" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="311">
+      <c r="F38" s="177">
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="188"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="181">
+      <c r="G38" s="197"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="193">
         <v>2</v>
       </c>
-      <c r="J38" s="182"/>
-      <c r="K38" s="182"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="183"/>
-      <c r="O38" s="199" t="s">
+      <c r="J38" s="194"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="195"/>
+      <c r="O38" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="199"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="199" t="s">
+      <c r="B39" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="199"/>
+      <c r="C39" s="189"/>
       <c r="D39" s="44" t="s">
         <v>133</v>
       </c>
       <c r="E39" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="312">
+      <c r="F39" s="178">
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="188"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="182"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="199" t="s">
+      <c r="G39" s="197"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="195"/>
+      <c r="O39" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="P39" s="199"/>
+      <c r="P39" s="189"/>
     </row>
     <row r="40" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="199" t="s">
+      <c r="B40" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="199"/>
+      <c r="C40" s="189"/>
       <c r="D40" s="47" t="s">
         <v>134</v>
       </c>
@@ -30594,26 +30594,26 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="188"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="181">
+      <c r="G40" s="197"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="193">
         <v>3</v>
       </c>
-      <c r="J40" s="182"/>
-      <c r="K40" s="182"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="183"/>
-      <c r="O40" s="199" t="s">
+      <c r="J40" s="194"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
+      <c r="O40" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="199"/>
+      <c r="P40" s="189"/>
     </row>
     <row r="41" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="199" t="s">
+      <c r="B41" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="199"/>
+      <c r="C41" s="189"/>
       <c r="D41" s="47" t="s">
         <v>27</v>
       </c>
@@ -30624,26 +30624,26 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="188"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="181">
+      <c r="G41" s="197"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="193">
         <v>4</v>
       </c>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="199" t="s">
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="P41" s="199"/>
+      <c r="P41" s="189"/>
     </row>
     <row r="42" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="199" t="s">
+      <c r="B42" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="199"/>
+      <c r="C42" s="189"/>
       <c r="D42" s="47" t="s">
         <v>135</v>
       </c>
@@ -30654,26 +30654,26 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="188"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="313" t="s">
+      <c r="G42" s="197"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="219" t="s">
         <v>278</v>
       </c>
-      <c r="J42" s="314"/>
-      <c r="K42" s="314"/>
-      <c r="L42" s="314"/>
-      <c r="M42" s="314"/>
-      <c r="N42" s="315"/>
-      <c r="O42" s="199" t="s">
+      <c r="J42" s="220"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="221"/>
+      <c r="O42" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="P42" s="199"/>
+      <c r="P42" s="189"/>
     </row>
     <row r="43" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="199" t="s">
+      <c r="B43" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="199"/>
+      <c r="C43" s="189"/>
       <c r="D43" s="47" t="s">
         <v>136</v>
       </c>
@@ -30684,20 +30684,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="188"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="181">
+      <c r="G43" s="197"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="193">
         <v>6</v>
       </c>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="199" t="s">
+      <c r="J43" s="194"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="195"/>
+      <c r="O43" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="P43" s="199"/>
+      <c r="P43" s="189"/>
     </row>
     <row r="44" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="190" t="s">
@@ -30714,26 +30714,26 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="188"/>
-      <c r="H44" s="189"/>
-      <c r="I44" s="181">
+      <c r="G44" s="197"/>
+      <c r="H44" s="198"/>
+      <c r="I44" s="193">
         <v>7</v>
       </c>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="183"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="195"/>
       <c r="O44" s="190" t="s">
         <v>48</v>
       </c>
       <c r="P44" s="191"/>
     </row>
     <row r="45" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="C45" s="178"/>
+      <c r="C45" s="186"/>
       <c r="D45" s="50" t="s">
         <v>186</v>
       </c>
@@ -30754,16 +30754,16 @@
       <c r="L45" s="171"/>
       <c r="M45" s="171"/>
       <c r="N45" s="172"/>
-      <c r="O45" s="177" t="s">
+      <c r="O45" s="185" t="s">
         <v>184</v>
       </c>
-      <c r="P45" s="178"/>
+      <c r="P45" s="186"/>
     </row>
     <row r="46" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="C46" s="178"/>
+      <c r="C46" s="186"/>
       <c r="D46" s="50" t="s">
         <v>185</v>
       </c>
@@ -30784,16 +30784,16 @@
       <c r="L46" s="171"/>
       <c r="M46" s="171"/>
       <c r="N46" s="172"/>
-      <c r="O46" s="177" t="s">
+      <c r="O46" s="185" t="s">
         <v>188</v>
       </c>
-      <c r="P46" s="178"/>
+      <c r="P46" s="186"/>
     </row>
     <row r="47" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="199" t="s">
+      <c r="B47" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="199"/>
+      <c r="C47" s="189"/>
       <c r="D47" s="50" t="s">
         <v>137</v>
       </c>
@@ -30804,20 +30804,20 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="188"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="181">
+      <c r="G47" s="197"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="193">
         <v>8</v>
       </c>
-      <c r="J47" s="182"/>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="199" t="s">
+      <c r="J47" s="194"/>
+      <c r="K47" s="194"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="195"/>
+      <c r="O47" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="P47" s="199"/>
+      <c r="P47" s="189"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
@@ -30838,16 +30838,16 @@
         <f>F47*F42*F20-((F41-1)*F18*F20*F19)</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="188"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="181" t="s">
+      <c r="G48" s="197"/>
+      <c r="H48" s="198"/>
+      <c r="I48" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="J48" s="182"/>
-      <c r="K48" s="182"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="183"/>
+      <c r="J48" s="194"/>
+      <c r="K48" s="194"/>
+      <c r="L48" s="194"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="195"/>
       <c r="O48" s="190" t="s">
         <v>69</v>
       </c>
@@ -30858,10 +30858,10 @@
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="199" t="s">
+      <c r="B49" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="199"/>
+      <c r="C49" s="189"/>
       <c r="D49" s="50" t="s">
         <v>140</v>
       </c>
@@ -30872,20 +30872,20 @@
         <f>(F48/F10)*(1/60)</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="188"/>
-      <c r="H49" s="189"/>
-      <c r="I49" s="181">
+      <c r="G49" s="197"/>
+      <c r="H49" s="198"/>
+      <c r="I49" s="193">
         <v>10</v>
       </c>
-      <c r="J49" s="182"/>
-      <c r="K49" s="182"/>
-      <c r="L49" s="182"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="183"/>
-      <c r="O49" s="199" t="s">
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="195"/>
+      <c r="O49" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="P49" s="199"/>
+      <c r="P49" s="189"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
@@ -30902,20 +30902,20 @@
       <c r="E50" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="F50" s="316">
+      <c r="F50" s="179">
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="188"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="181">
+      <c r="G50" s="197"/>
+      <c r="H50" s="198"/>
+      <c r="I50" s="193">
         <v>11</v>
       </c>
-      <c r="J50" s="182"/>
-      <c r="K50" s="182"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="183"/>
+      <c r="J50" s="194"/>
+      <c r="K50" s="194"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
       <c r="O50" s="190" t="s">
         <v>89</v>
       </c>
@@ -30930,10 +30930,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="199" t="s">
+      <c r="B51" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="199"/>
+      <c r="C51" s="189"/>
       <c r="D51" s="50" t="s">
         <v>72</v>
       </c>
@@ -30942,20 +30942,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="188"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="181">
+      <c r="G51" s="197"/>
+      <c r="H51" s="198"/>
+      <c r="I51" s="193">
         <v>12</v>
       </c>
-      <c r="J51" s="182"/>
-      <c r="K51" s="182"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="183"/>
-      <c r="O51" s="199" t="s">
+      <c r="J51" s="194"/>
+      <c r="K51" s="194"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="195"/>
+      <c r="O51" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="P51" s="199"/>
+      <c r="P51" s="189"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="190" t="s">
@@ -30972,16 +30972,16 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="188"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="181">
+      <c r="G52" s="197"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="193">
         <v>13</v>
       </c>
-      <c r="J52" s="182"/>
-      <c r="K52" s="182"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="182"/>
-      <c r="N52" s="183"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="195"/>
       <c r="O52" s="190" t="s">
         <v>79</v>
       </c>
@@ -31002,16 +31002,16 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="188"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="181">
+      <c r="G53" s="197"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="193">
         <v>14</v>
       </c>
-      <c r="J53" s="182"/>
-      <c r="K53" s="182"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="182"/>
-      <c r="N53" s="183"/>
+      <c r="J53" s="194"/>
+      <c r="K53" s="194"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="194"/>
+      <c r="N53" s="195"/>
       <c r="O53" s="190" t="s">
         <v>86</v>
       </c>
@@ -31032,26 +31032,26 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="188"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="181">
+      <c r="G54" s="197"/>
+      <c r="H54" s="198"/>
+      <c r="I54" s="193">
         <v>15</v>
       </c>
-      <c r="J54" s="182"/>
-      <c r="K54" s="182"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="182"/>
-      <c r="N54" s="183"/>
+      <c r="J54" s="194"/>
+      <c r="K54" s="194"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="194"/>
+      <c r="N54" s="195"/>
       <c r="O54" s="190" t="s">
         <v>88</v>
       </c>
       <c r="P54" s="191"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="199" t="s">
+      <c r="B55" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="199"/>
+      <c r="C55" s="189"/>
       <c r="D55" s="50" t="s">
         <v>156</v>
       </c>
@@ -31062,20 +31062,20 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="188"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="181">
+      <c r="G55" s="197"/>
+      <c r="H55" s="198"/>
+      <c r="I55" s="193">
         <v>16</v>
       </c>
-      <c r="J55" s="182"/>
-      <c r="K55" s="182"/>
-      <c r="L55" s="182"/>
-      <c r="M55" s="182"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="199" t="s">
+      <c r="J55" s="194"/>
+      <c r="K55" s="194"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="195"/>
+      <c r="O55" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="P55" s="199"/>
+      <c r="P55" s="189"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="73"/>
@@ -31110,10 +31110,10 @@
       <c r="N57" s="173"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="178"/>
+      <c r="C58" s="186"/>
       <c r="D58" s="50" t="s">
         <v>157</v>
       </c>
@@ -31124,26 +31124,26 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="188"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="181">
+      <c r="G58" s="197"/>
+      <c r="H58" s="198"/>
+      <c r="I58" s="193">
         <v>19</v>
       </c>
-      <c r="J58" s="182"/>
-      <c r="K58" s="182"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="182"/>
-      <c r="N58" s="183"/>
-      <c r="O58" s="177" t="s">
+      <c r="J58" s="194"/>
+      <c r="K58" s="194"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="P58" s="178"/>
+      <c r="P58" s="186"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="177" t="s">
+      <c r="B59" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="178"/>
+      <c r="C59" s="186"/>
       <c r="D59" s="50" t="s">
         <v>159</v>
       </c>
@@ -31153,26 +31153,26 @@
       <c r="F59" s="87">
         <v>8</v>
       </c>
-      <c r="G59" s="209"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="216" t="s">
+      <c r="G59" s="205"/>
+      <c r="H59" s="206"/>
+      <c r="I59" s="199" t="s">
         <v>280</v>
       </c>
-      <c r="J59" s="217"/>
-      <c r="K59" s="217"/>
-      <c r="L59" s="217"/>
-      <c r="M59" s="217"/>
-      <c r="N59" s="218"/>
-      <c r="O59" s="177" t="s">
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="201"/>
+      <c r="O59" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="P59" s="178"/>
+      <c r="P59" s="186"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="177" t="s">
+      <c r="B60" s="185" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="178"/>
+      <c r="C60" s="186"/>
       <c r="D60" s="50" t="s">
         <v>158</v>
       </c>
@@ -31183,8 +31183,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="188"/>
-      <c r="H60" s="189"/>
+      <c r="G60" s="197"/>
+      <c r="H60" s="198"/>
       <c r="I60" s="170">
         <v>21</v>
       </c>
@@ -31193,16 +31193,16 @@
       <c r="L60" s="171"/>
       <c r="M60" s="171"/>
       <c r="N60" s="172"/>
-      <c r="O60" s="177" t="s">
+      <c r="O60" s="185" t="s">
         <v>187</v>
       </c>
-      <c r="P60" s="178"/>
+      <c r="P60" s="186"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="184" t="s">
+      <c r="B61" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="184"/>
+      <c r="C61" s="182"/>
       <c r="D61" s="7" t="s">
         <v>162</v>
       </c>
@@ -31213,26 +31213,26 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="188"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="185">
+      <c r="G61" s="197"/>
+      <c r="H61" s="198"/>
+      <c r="I61" s="225">
         <v>22</v>
       </c>
-      <c r="J61" s="186"/>
-      <c r="K61" s="186"/>
-      <c r="L61" s="186"/>
-      <c r="M61" s="186"/>
-      <c r="N61" s="187"/>
-      <c r="O61" s="184" t="s">
+      <c r="J61" s="226"/>
+      <c r="K61" s="226"/>
+      <c r="L61" s="226"/>
+      <c r="M61" s="226"/>
+      <c r="N61" s="227"/>
+      <c r="O61" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="P61" s="184"/>
+      <c r="P61" s="182"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="184" t="s">
+      <c r="B62" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="184"/>
+      <c r="C62" s="182"/>
       <c r="D62" s="7" t="s">
         <v>163</v>
       </c>
@@ -31243,8 +31243,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="179"/>
-      <c r="H62" s="180"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="224"/>
       <c r="I62" s="170">
         <v>23</v>
       </c>
@@ -31253,16 +31253,16 @@
       <c r="L62" s="171"/>
       <c r="M62" s="171"/>
       <c r="N62" s="172"/>
-      <c r="O62" s="184" t="s">
+      <c r="O62" s="182" t="s">
         <v>170</v>
       </c>
-      <c r="P62" s="184"/>
+      <c r="P62" s="182"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="184" t="s">
+      <c r="B63" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="184"/>
+      <c r="C63" s="182"/>
       <c r="D63" s="7" t="s">
         <v>162</v>
       </c>
@@ -31273,8 +31273,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="188"/>
-      <c r="H63" s="189"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="198"/>
       <c r="I63" s="174">
         <v>24</v>
       </c>
@@ -31283,42 +31283,42 @@
       <c r="L63" s="171"/>
       <c r="M63" s="171"/>
       <c r="N63" s="172"/>
-      <c r="O63" s="184" t="s">
+      <c r="O63" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="P63" s="184"/>
+      <c r="P63" s="182"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="203" t="s">
+      <c r="B64" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="204"/>
+      <c r="C64" s="188"/>
       <c r="D64" s="50"/>
       <c r="E64" s="45"/>
       <c r="F64" s="82">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="209"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="194" t="s">
+      <c r="G64" s="205"/>
+      <c r="H64" s="206"/>
+      <c r="I64" s="202" t="s">
         <v>281</v>
       </c>
-      <c r="J64" s="195"/>
-      <c r="K64" s="195"/>
-      <c r="L64" s="195"/>
-      <c r="M64" s="195"/>
-      <c r="N64" s="196"/>
-      <c r="O64" s="203" t="s">
+      <c r="J64" s="203"/>
+      <c r="K64" s="203"/>
+      <c r="L64" s="203"/>
+      <c r="M64" s="203"/>
+      <c r="N64" s="204"/>
+      <c r="O64" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="P64" s="204"/>
+      <c r="P64" s="188"/>
     </row>
     <row r="65" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="184" t="s">
+      <c r="B65" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="184"/>
+      <c r="C65" s="182"/>
       <c r="D65" s="7" t="s">
         <v>163</v>
       </c>
@@ -31329,10 +31329,10 @@
         <f>IF(AND(F64&gt;0.45,F62=1),1,IF(AND(F64&gt;0.45,F62=1.25),1,IF(AND(F64&gt;0.45,F62=2),1.5,IF(AND(F64&gt;0.45,F62=2.5),2,IF(AND(F64&gt;0.45,F62=3),2.5,IF(AND(F64&gt;0.45,F62=4),3,F62))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G65" s="317" t="s">
+      <c r="G65" s="180" t="s">
         <v>282</v>
       </c>
-      <c r="H65" s="318"/>
+      <c r="H65" s="181"/>
       <c r="I65" s="170">
         <v>26</v>
       </c>
@@ -31341,16 +31341,16 @@
       <c r="L65" s="171"/>
       <c r="M65" s="171"/>
       <c r="N65" s="172"/>
-      <c r="O65" s="184" t="s">
+      <c r="O65" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="P65" s="184"/>
+      <c r="P65" s="182"/>
     </row>
     <row r="66" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="184" t="s">
+      <c r="B66" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="184"/>
+      <c r="C66" s="182"/>
       <c r="D66" s="7" t="s">
         <v>162</v>
       </c>
@@ -31359,8 +31359,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="188"/>
-      <c r="H66" s="189"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="198"/>
       <c r="I66" s="170">
         <v>27</v>
       </c>
@@ -31369,40 +31369,40 @@
       <c r="L66" s="171"/>
       <c r="M66" s="171"/>
       <c r="N66" s="172"/>
-      <c r="O66" s="184" t="s">
+      <c r="O66" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="P66" s="184"/>
+      <c r="P66" s="182"/>
     </row>
     <row r="67" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="214" t="s">
+      <c r="B67" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="C67" s="215"/>
+      <c r="C67" s="184"/>
       <c r="D67" s="50"/>
       <c r="E67" s="45"/>
       <c r="F67" s="82">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="188"/>
-      <c r="H67" s="189"/>
+      <c r="G67" s="197"/>
+      <c r="H67" s="198"/>
       <c r="I67" s="170"/>
       <c r="J67" s="175"/>
       <c r="K67" s="171"/>
       <c r="L67" s="171"/>
       <c r="M67" s="171"/>
       <c r="N67" s="172"/>
-      <c r="O67" s="214" t="s">
+      <c r="O67" s="183" t="s">
         <v>277</v>
       </c>
-      <c r="P67" s="215"/>
+      <c r="P67" s="184"/>
     </row>
     <row r="68" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="177" t="s">
+      <c r="B68" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="178"/>
+      <c r="C68" s="186"/>
       <c r="D68" s="50" t="s">
         <v>175</v>
       </c>
@@ -31413,8 +31413,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="188"/>
-      <c r="H68" s="189"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="198"/>
       <c r="I68" s="170">
         <v>28</v>
       </c>
@@ -31423,16 +31423,16 @@
       <c r="L68" s="171"/>
       <c r="M68" s="171"/>
       <c r="N68" s="172"/>
-      <c r="O68" s="177" t="s">
+      <c r="O68" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="P68" s="178"/>
+      <c r="P68" s="186"/>
     </row>
     <row r="69" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="177" t="s">
+      <c r="B69" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="178"/>
+      <c r="C69" s="186"/>
       <c r="D69" s="50" t="s">
         <v>166</v>
       </c>
@@ -31441,8 +31441,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="179"/>
-      <c r="H69" s="180"/>
+      <c r="G69" s="223"/>
+      <c r="H69" s="224"/>
       <c r="I69" s="170">
         <v>29</v>
       </c>
@@ -31451,16 +31451,16 @@
       <c r="L69" s="171"/>
       <c r="M69" s="171"/>
       <c r="N69" s="172"/>
-      <c r="O69" s="177" t="s">
+      <c r="O69" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="P69" s="178"/>
+      <c r="P69" s="186"/>
     </row>
     <row r="70" spans="2:16" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="203" t="s">
+      <c r="B70" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="204"/>
+      <c r="C70" s="188"/>
       <c r="D70" s="50" t="s">
         <v>177</v>
       </c>
@@ -31481,16 +31481,16 @@
       <c r="L70" s="171"/>
       <c r="M70" s="171"/>
       <c r="N70" s="172"/>
-      <c r="O70" s="203" t="s">
+      <c r="O70" s="187" t="s">
         <v>176</v>
       </c>
-      <c r="P70" s="204"/>
+      <c r="P70" s="188"/>
     </row>
     <row r="71" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="203" t="s">
+      <c r="B71" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="C71" s="204"/>
+      <c r="C71" s="188"/>
       <c r="D71" s="50" t="s">
         <v>177</v>
       </c>
@@ -31499,34 +31499,34 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="188"/>
-      <c r="H71" s="189"/>
-      <c r="I71" s="181" t="s">
+      <c r="G71" s="197"/>
+      <c r="H71" s="198"/>
+      <c r="I71" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="J71" s="182"/>
-      <c r="K71" s="182"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="183"/>
-      <c r="O71" s="203" t="s">
+      <c r="J71" s="194"/>
+      <c r="K71" s="194"/>
+      <c r="L71" s="194"/>
+      <c r="M71" s="194"/>
+      <c r="N71" s="195"/>
+      <c r="O71" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="P71" s="204"/>
+      <c r="P71" s="188"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="198"/>
-      <c r="C72" s="198"/>
+      <c r="B72" s="213"/>
+      <c r="C72" s="213"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="193" t="s">
+      <c r="B73" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="193"/>
+      <c r="C73" s="218"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -31542,13 +31542,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="176" t="s">
+      <c r="C75" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="176"/>
-      <c r="E75" s="176"/>
-      <c r="F75" s="176"/>
-      <c r="G75" s="176"/>
+      <c r="D75" s="222"/>
+      <c r="E75" s="222"/>
+      <c r="F75" s="222"/>
+      <c r="G75" s="222"/>
       <c r="H75" s="63"/>
       <c r="I75" s="88"/>
       <c r="J75" s="22"/>
@@ -31560,13 +31560,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="176" t="s">
+      <c r="C76" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="176"/>
-      <c r="E76" s="176"/>
-      <c r="F76" s="176"/>
-      <c r="G76" s="176"/>
+      <c r="D76" s="222"/>
+      <c r="E76" s="222"/>
+      <c r="F76" s="222"/>
+      <c r="G76" s="222"/>
       <c r="H76" s="63"/>
       <c r="J76" s="89"/>
       <c r="K76" s="23"/>
@@ -31577,13 +31577,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="192" t="s">
+      <c r="C77" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="192"/>
-      <c r="E77" s="192"/>
-      <c r="F77" s="192"/>
-      <c r="G77" s="192"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="216"/>
+      <c r="G77" s="216"/>
       <c r="H77" s="62"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -31594,13 +31594,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="176" t="s">
+      <c r="C78" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="176"/>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
+      <c r="D78" s="222"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="222"/>
+      <c r="G78" s="222"/>
       <c r="H78" s="63"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -31611,16 +31611,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="176" t="s">
+      <c r="C79" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="176"/>
-      <c r="E79" s="176"/>
-      <c r="F79" s="176"/>
-      <c r="G79" s="176"/>
+      <c r="D79" s="222"/>
+      <c r="E79" s="222"/>
+      <c r="F79" s="222"/>
+      <c r="G79" s="222"/>
       <c r="H79" s="63"/>
-      <c r="J79" s="213"/>
-      <c r="K79" s="213"/>
+      <c r="J79" s="196"/>
+      <c r="K79" s="196"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -31628,13 +31628,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="192" t="s">
+      <c r="C80" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="192"/>
-      <c r="E80" s="192"/>
-      <c r="F80" s="192"/>
-      <c r="G80" s="192"/>
+      <c r="D80" s="216"/>
+      <c r="E80" s="216"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="216"/>
       <c r="H80" s="62"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -31645,13 +31645,13 @@
       <c r="B81" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="192" t="s">
+      <c r="C81" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="D81" s="192"/>
-      <c r="E81" s="192"/>
-      <c r="F81" s="192"/>
-      <c r="G81" s="192"/>
+      <c r="D81" s="216"/>
+      <c r="E81" s="216"/>
+      <c r="F81" s="216"/>
+      <c r="G81" s="216"/>
       <c r="H81" s="62"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -31662,13 +31662,13 @@
       <c r="B82" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="176" t="s">
+      <c r="C82" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="176"/>
-      <c r="G82" s="176"/>
+      <c r="D82" s="222"/>
+      <c r="E82" s="222"/>
+      <c r="F82" s="222"/>
+      <c r="G82" s="222"/>
       <c r="H82" s="63"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -31679,13 +31679,13 @@
       <c r="B83" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="176" t="s">
+      <c r="C83" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
-      <c r="G83" s="176"/>
+      <c r="D83" s="222"/>
+      <c r="E83" s="222"/>
+      <c r="F83" s="222"/>
+      <c r="G83" s="222"/>
       <c r="H83" s="72"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -33107,41 +33107,101 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B67:C67"/>
@@ -33166,104 +33226,44 @@
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="G55:H55"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="I71:N71"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33316,13 +33316,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="232" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="232"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
@@ -33331,10 +33331,10 @@
       <c r="C9" s="40"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="201"/>
+      <c r="C10" s="215"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -33346,10 +33346,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="200" t="s">
+      <c r="B11" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="215"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -33361,10 +33361,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="201"/>
+      <c r="C12" s="215"/>
       <c r="D12" s="9" t="s">
         <v>91</v>
       </c>
@@ -33377,10 +33377,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="201"/>
+      <c r="C13" s="215"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -33392,10 +33392,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="214" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="201"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="35"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -33403,11 +33403,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="200" t="str">
+      <c r="B15" s="214" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="201"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="8" t="s">
         <v>107</v>
       </c>
@@ -33417,10 +33417,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="201"/>
+      <c r="C16" s="215"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -33433,10 +33433,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="215"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -33449,10 +33449,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="200" t="s">
+      <c r="B18" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="201"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -33466,10 +33466,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="201"/>
+      <c r="C19" s="215"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -33482,10 +33482,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="201"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -33514,10 +33514,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="200" t="s">
+      <c r="B23" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="201"/>
+      <c r="C23" s="215"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -33529,10 +33529,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="222" t="s">
+      <c r="B24" s="230" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="223"/>
+      <c r="C24" s="231"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -33561,22 +33561,22 @@
       <c r="C27" s="40"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="219" t="s">
+      <c r="B28" s="229" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="219"/>
-      <c r="G28" s="219"/>
+      <c r="C28" s="229"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="52"/>
@@ -33672,14 +33672,14 @@
       <c r="G37" s="52"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="219" t="s">
+      <c r="B38" s="229" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
@@ -33966,14 +33966,14 @@
       <c r="G63" s="52"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="219" t="s">
+      <c r="B64" s="229" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="219"/>
-      <c r="D64" s="219"/>
-      <c r="E64" s="219"/>
-      <c r="F64" s="219"/>
-      <c r="G64" s="219"/>
+      <c r="C64" s="229"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="52"/>
@@ -34101,46 +34101,46 @@
       <c r="C75" s="40"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="221" t="s">
+      <c r="B76" s="228" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="221"/>
-      <c r="D76" s="221"/>
-      <c r="E76" s="221"/>
-      <c r="F76" s="221"/>
-      <c r="G76" s="221"/>
+      <c r="C76" s="228"/>
+      <c r="D76" s="228"/>
+      <c r="E76" s="228"/>
+      <c r="F76" s="228"/>
+      <c r="G76" s="228"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="221"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221"/>
-      <c r="F77" s="221"/>
-      <c r="G77" s="221"/>
+      <c r="B77" s="228"/>
+      <c r="C77" s="228"/>
+      <c r="D77" s="228"/>
+      <c r="E77" s="228"/>
+      <c r="F77" s="228"/>
+      <c r="G77" s="228"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="221"/>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="221"/>
-      <c r="G78" s="221"/>
+      <c r="B78" s="228"/>
+      <c r="C78" s="228"/>
+      <c r="D78" s="228"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="228"/>
+      <c r="G78" s="228"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="221"/>
-      <c r="C79" s="221"/>
-      <c r="D79" s="221"/>
-      <c r="E79" s="221"/>
-      <c r="F79" s="221"/>
-      <c r="G79" s="221"/>
+      <c r="B79" s="228"/>
+      <c r="C79" s="228"/>
+      <c r="D79" s="228"/>
+      <c r="E79" s="228"/>
+      <c r="F79" s="228"/>
+      <c r="G79" s="228"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="221"/>
-      <c r="C80" s="221"/>
-      <c r="D80" s="221"/>
-      <c r="E80" s="221"/>
-      <c r="F80" s="221"/>
-      <c r="G80" s="221"/>
+      <c r="B80" s="228"/>
+      <c r="C80" s="228"/>
+      <c r="D80" s="228"/>
+      <c r="E80" s="228"/>
+      <c r="F80" s="228"/>
+      <c r="G80" s="228"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="41"/>
@@ -34178,6 +34178,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -34194,25 +34213,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34224,7 +34224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA170"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:H14"/>
     </sheetView>
   </sheetViews>
@@ -34258,44 +34258,44 @@
     </row>
     <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
       <c r="G2" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
       <c r="G3" s="40" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
       <c r="G4" s="40" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
       <c r="G5" s="40" t="s">
         <v>217</v>
       </c>
@@ -34318,15 +34318,15 @@
       <c r="A8" s="105">
         <v>0</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
-      <c r="G8" s="199"/>
-      <c r="H8" s="199"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
       <c r="I8" s="55" t="s">
         <v>0</v>
       </c>
@@ -34341,15 +34341,15 @@
       <c r="A9" s="105">
         <v>1</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
       <c r="I9" s="55" t="s">
         <v>263</v>
       </c>
@@ -34364,15 +34364,15 @@
       <c r="A10" s="105">
         <v>2</v>
       </c>
-      <c r="B10" s="307" t="s">
+      <c r="B10" s="262" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="307"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
       <c r="I10" s="50" t="s">
         <v>2</v>
       </c>
@@ -34393,46 +34393,46 @@
       <c r="C12" s="107"/>
     </row>
     <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="254" t="s">
+      <c r="B13" s="284" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="277"/>
-      <c r="G13" s="277"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="230" t="s">
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="285"/>
+      <c r="H13" s="286"/>
+      <c r="I13" s="257" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="230" t="s">
+      <c r="J13" s="257" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="258"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="278"/>
-      <c r="H14" s="259"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
+      <c r="B14" s="287"/>
+      <c r="C14" s="288"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
+      <c r="F14" s="288"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="257"/>
+      <c r="J14" s="257"/>
     </row>
     <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>3</v>
       </c>
-      <c r="B15" s="279" t="s">
+      <c r="B15" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="280"/>
-      <c r="D15" s="280"/>
-      <c r="E15" s="280"/>
-      <c r="F15" s="280"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="281"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="250"/>
       <c r="I15" s="162" t="s">
         <v>209</v>
       </c>
@@ -34444,15 +34444,15 @@
       <c r="A16" s="105">
         <v>4</v>
       </c>
-      <c r="B16" s="282" t="s">
+      <c r="B16" s="290" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="283"/>
-      <c r="D16" s="283"/>
-      <c r="E16" s="283"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="284"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="292"/>
       <c r="I16" s="163" t="s">
         <v>197</v>
       </c>
@@ -34467,15 +34467,15 @@
       <c r="A17" s="105">
         <v>5</v>
       </c>
-      <c r="B17" s="303" t="s">
+      <c r="B17" s="252" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="304"/>
-      <c r="D17" s="304"/>
-      <c r="E17" s="304"/>
-      <c r="F17" s="304"/>
-      <c r="G17" s="304"/>
-      <c r="H17" s="305"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="254"/>
       <c r="I17" s="55" t="s">
         <v>196</v>
       </c>
@@ -34487,15 +34487,15 @@
       <c r="A18" s="105">
         <v>6</v>
       </c>
-      <c r="B18" s="279" t="s">
+      <c r="B18" s="248" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="280"/>
-      <c r="E18" s="280"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="281"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="250"/>
       <c r="I18" s="163" t="s">
         <v>87</v>
       </c>
@@ -34507,15 +34507,15 @@
       <c r="A19" s="105">
         <v>7</v>
       </c>
-      <c r="B19" s="279" t="s">
+      <c r="B19" s="248" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="280"/>
-      <c r="D19" s="280"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="280"/>
-      <c r="G19" s="280"/>
-      <c r="H19" s="281"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="250"/>
       <c r="I19" s="163" t="s">
         <v>195</v>
       </c>
@@ -34527,15 +34527,15 @@
       <c r="A20" s="105">
         <v>8</v>
       </c>
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="248" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="280"/>
-      <c r="D20" s="280"/>
-      <c r="E20" s="280"/>
-      <c r="F20" s="280"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="281"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="250"/>
       <c r="I20" s="164" t="s">
         <v>214</v>
       </c>
@@ -34547,15 +34547,15 @@
       <c r="A21" s="105">
         <v>9</v>
       </c>
-      <c r="B21" s="279" t="s">
+      <c r="B21" s="248" t="s">
         <v>215</v>
       </c>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="281"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="250"/>
       <c r="I21" s="165" t="s">
         <v>216</v>
       </c>
@@ -34622,141 +34622,141 @@
       <c r="Z24" s="106"/>
     </row>
     <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="254" t="s">
+      <c r="B25" s="284" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="255"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231" t="s">
+      <c r="C25" s="286"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="258" t="s">
         <v>246</v>
       </c>
-      <c r="G25" s="231" t="s">
+      <c r="G25" s="258" t="s">
         <v>247</v>
       </c>
-      <c r="H25" s="231" t="s">
+      <c r="H25" s="258" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="263" t="s">
+      <c r="I25" s="304" t="s">
         <v>250</v>
       </c>
-      <c r="J25" s="242" t="s">
+      <c r="J25" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="K25" s="243"/>
-      <c r="L25" s="243"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="269" t="s">
+      <c r="K25" s="294"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="295"/>
+      <c r="N25" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="O25" s="270"/>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="270"/>
-      <c r="R25" s="271"/>
-      <c r="S25" s="268" t="s">
+      <c r="O25" s="309"/>
+      <c r="P25" s="309"/>
+      <c r="Q25" s="309"/>
+      <c r="R25" s="310"/>
+      <c r="S25" s="307" t="s">
         <v>203</v>
       </c>
-      <c r="T25" s="268"/>
-      <c r="U25" s="268"/>
-      <c r="V25" s="268"/>
+      <c r="T25" s="307"/>
+      <c r="U25" s="307"/>
+      <c r="V25" s="307"/>
       <c r="W25" s="109"/>
-      <c r="X25" s="231" t="s">
+      <c r="X25" s="258" t="s">
         <v>204</v>
       </c>
-      <c r="Y25" s="231" t="s">
+      <c r="Y25" s="258" t="s">
         <v>205</v>
       </c>
       <c r="Z25" s="106"/>
     </row>
     <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="260" t="s">
+      <c r="B26" s="299"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="298"/>
+      <c r="G26" s="298"/>
+      <c r="H26" s="298"/>
+      <c r="I26" s="305"/>
+      <c r="J26" s="301" t="s">
         <v>206</v>
       </c>
-      <c r="K26" s="245"/>
-      <c r="L26" s="246"/>
-      <c r="M26" s="247"/>
-      <c r="N26" s="272"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="260" t="s">
+      <c r="K26" s="263"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="264"/>
+      <c r="N26" s="311"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
+      <c r="Q26" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="R26" s="273"/>
-      <c r="S26" s="273"/>
-      <c r="T26" s="273"/>
-      <c r="U26" s="260" t="s">
+      <c r="R26" s="312"/>
+      <c r="S26" s="312"/>
+      <c r="T26" s="312"/>
+      <c r="U26" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="V26" s="273"/>
-      <c r="X26" s="232"/>
-      <c r="Y26" s="232"/>
+      <c r="V26" s="312"/>
+      <c r="X26" s="298"/>
+      <c r="Y26" s="298"/>
       <c r="Z26" s="168" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="256"/>
-      <c r="C27" s="257"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="122"/>
       <c r="E27" s="123"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="248"/>
-      <c r="L27" s="249"/>
-      <c r="M27" s="250"/>
-      <c r="N27" s="272"/>
-      <c r="O27" s="248"/>
-      <c r="P27" s="250"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="274"/>
-      <c r="S27" s="274"/>
-      <c r="T27" s="274"/>
-      <c r="U27" s="261"/>
-      <c r="V27" s="274"/>
-      <c r="X27" s="232"/>
-      <c r="Y27" s="232"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="305"/>
+      <c r="J27" s="302"/>
+      <c r="K27" s="265"/>
+      <c r="L27" s="251"/>
+      <c r="M27" s="266"/>
+      <c r="N27" s="311"/>
+      <c r="O27" s="265"/>
+      <c r="P27" s="266"/>
+      <c r="Q27" s="302"/>
+      <c r="R27" s="313"/>
+      <c r="S27" s="313"/>
+      <c r="T27" s="313"/>
+      <c r="U27" s="302"/>
+      <c r="V27" s="313"/>
+      <c r="X27" s="298"/>
+      <c r="Y27" s="298"/>
     </row>
     <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="258"/>
-      <c r="C28" s="259"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="122"/>
       <c r="E28" s="123"/>
-      <c r="F28" s="233"/>
-      <c r="G28" s="233"/>
-      <c r="H28" s="233"/>
-      <c r="I28" s="265"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="251"/>
-      <c r="L28" s="252"/>
-      <c r="M28" s="253"/>
-      <c r="N28" s="272"/>
-      <c r="O28" s="251"/>
-      <c r="P28" s="253"/>
-      <c r="Q28" s="262"/>
-      <c r="R28" s="275"/>
-      <c r="S28" s="275"/>
-      <c r="T28" s="275"/>
-      <c r="U28" s="262"/>
-      <c r="V28" s="275"/>
-      <c r="X28" s="233"/>
-      <c r="Y28" s="233"/>
+      <c r="F28" s="259"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="259"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="303"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="297"/>
+      <c r="M28" s="268"/>
+      <c r="N28" s="311"/>
+      <c r="O28" s="267"/>
+      <c r="P28" s="268"/>
+      <c r="Q28" s="303"/>
+      <c r="R28" s="314"/>
+      <c r="S28" s="314"/>
+      <c r="T28" s="314"/>
+      <c r="U28" s="303"/>
+      <c r="V28" s="314"/>
+      <c r="X28" s="259"/>
+      <c r="Y28" s="259"/>
     </row>
     <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="266" t="s">
+      <c r="B29" s="260" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="267"/>
+      <c r="C29" s="261"/>
       <c r="D29" s="166">
         <f>LEFT(B29,2)+0</f>
         <v>14</v>
@@ -34784,26 +34784,26 @@
         <f t="shared" ref="J29:J37" si="2">(F29/100)/((I29/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K29" s="294" t="str">
+      <c r="K29" s="239" t="str">
         <f>ROUND((J20*K10*((1-J19)^2)/(J19^3)*(J18*(J16/3600))/J17*((6/J15)^2)*J38),4)&amp;" m"</f>
         <v>0,562 m</v>
       </c>
-      <c r="L29" s="295"/>
-      <c r="M29" s="296"/>
+      <c r="L29" s="240"/>
+      <c r="M29" s="241"/>
       <c r="N29" s="98">
         <f>$J$15*(I29/1000)*($J$16/3600)/$K$10</f>
         <v>1.2817196735170411</v>
       </c>
-      <c r="O29" s="308">
+      <c r="O29" s="233">
         <f>150*(1-$J$19)/N29+1.75</f>
         <v>66.116648733431589</v>
       </c>
-      <c r="P29" s="309"/>
+      <c r="P29" s="234"/>
       <c r="Q29" s="113">
         <f t="shared" ref="Q29:Q37" si="3">O29*(F29/100)/(I29/1000)</f>
         <v>485.72814066729165</v>
       </c>
-      <c r="R29" s="293" t="str">
+      <c r="R29" s="238" t="str">
         <f>ROUND((1/J15*(1-J19)/(J19^3)*J18*((J16/3600)^2)/J17*Q38),4)&amp; " m"</f>
         <v>0,4722 m</v>
       </c>
@@ -34819,7 +34819,7 @@
         <f t="shared" ref="U29:U37" si="5">T29*(F29/100)/(I29/1000)</f>
         <v>159.52786446634451</v>
       </c>
-      <c r="V29" s="293" t="str">
+      <c r="V29" s="238" t="str">
         <f>ROUND((1.067*((J16/3600)^2)*J18/(J21*J17*(J19^4))*U38),4)&amp;" m"</f>
         <v>0,6356 m</v>
       </c>
@@ -34832,10 +34832,10 @@
       <c r="Z29" s="116"/>
     </row>
     <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="266" t="s">
+      <c r="B30" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="267"/>
+      <c r="C30" s="261"/>
       <c r="D30" s="166">
         <f t="shared" ref="D30:D37" si="6">LEFT(B30,2)+0</f>
         <v>20</v>
@@ -34863,23 +34863,23 @@
         <f t="shared" si="2"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K30" s="297"/>
-      <c r="L30" s="298"/>
-      <c r="M30" s="299"/>
+      <c r="K30" s="242"/>
+      <c r="L30" s="243"/>
+      <c r="M30" s="244"/>
       <c r="N30" s="98">
         <f t="shared" ref="N30:N37" si="9">$J$15*(I30/1000)*($J$16/3600)/$K$10</f>
         <v>0.90759731216794171</v>
       </c>
-      <c r="O30" s="308">
+      <c r="O30" s="233">
         <f t="shared" ref="O30:O37" si="10">150*(1-$J$19)/N30+1.75</f>
         <v>92.649343678018965</v>
       </c>
-      <c r="P30" s="309"/>
+      <c r="P30" s="234"/>
       <c r="Q30" s="113">
         <f t="shared" si="3"/>
         <v>5106.5027768158061</v>
       </c>
-      <c r="R30" s="293"/>
+      <c r="R30" s="238"/>
       <c r="S30" s="114">
         <f t="shared" si="4"/>
         <v>0.90759731216794171</v>
@@ -34892,7 +34892,7 @@
         <f t="shared" si="5"/>
         <v>1649.7708830958061</v>
       </c>
-      <c r="V30" s="293"/>
+      <c r="V30" s="238"/>
       <c r="X30" s="45">
         <v>100</v>
       </c>
@@ -34902,10 +34902,10 @@
       <c r="Z30" s="117"/>
     </row>
     <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="260" t="s">
         <v>222</v>
       </c>
-      <c r="C31" s="267"/>
+      <c r="C31" s="261"/>
       <c r="D31" s="166">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -34933,23 +34933,23 @@
         <f t="shared" si="2"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K31" s="297"/>
-      <c r="L31" s="298"/>
-      <c r="M31" s="299"/>
+      <c r="K31" s="242"/>
+      <c r="L31" s="243"/>
+      <c r="M31" s="244"/>
       <c r="N31" s="98">
         <f t="shared" si="9"/>
         <v>0.76340269015338524</v>
       </c>
-      <c r="O31" s="308">
+      <c r="O31" s="233">
         <f t="shared" si="10"/>
         <v>109.81878344039349</v>
       </c>
-      <c r="P31" s="309"/>
+      <c r="P31" s="234"/>
       <c r="Q31" s="113">
         <f t="shared" si="3"/>
         <v>25431.874468714897</v>
       </c>
-      <c r="R31" s="293"/>
+      <c r="R31" s="238"/>
       <c r="S31" s="114">
         <f t="shared" si="4"/>
         <v>0.76340269015338524</v>
@@ -34962,7 +34962,7 @@
         <f t="shared" si="5"/>
         <v>8154.3500211013752</v>
       </c>
-      <c r="V31" s="293"/>
+      <c r="V31" s="238"/>
       <c r="X31" s="45">
         <v>80</v>
       </c>
@@ -34972,10 +34972,10 @@
       <c r="Z31" s="117"/>
     </row>
     <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="266" t="s">
+      <c r="B32" s="260" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="267"/>
+      <c r="C32" s="261"/>
       <c r="D32" s="166">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -35003,23 +35003,23 @@
         <f t="shared" si="2"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K32" s="297"/>
-      <c r="L32" s="298"/>
-      <c r="M32" s="299"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="243"/>
+      <c r="M32" s="244"/>
       <c r="N32" s="98">
         <f t="shared" si="9"/>
         <v>0.64199106136038808</v>
       </c>
-      <c r="O32" s="308">
+      <c r="O32" s="233">
         <f t="shared" si="10"/>
         <v>130.25646210740277</v>
       </c>
-      <c r="P32" s="309"/>
+      <c r="P32" s="234"/>
       <c r="Q32" s="113">
         <f t="shared" si="3"/>
         <v>39762.165713008726</v>
       </c>
-      <c r="R32" s="293"/>
+      <c r="R32" s="238"/>
       <c r="S32" s="114">
         <f t="shared" si="4"/>
         <v>0.64199106136038808</v>
@@ -35032,7 +35032,7 @@
         <f t="shared" si="5"/>
         <v>12658.509437679921</v>
       </c>
-      <c r="V32" s="293"/>
+      <c r="V32" s="238"/>
       <c r="X32" s="45">
         <v>70</v>
       </c>
@@ -35042,10 +35042,10 @@
       <c r="Z32" s="117"/>
     </row>
     <row r="33" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="266" t="s">
+      <c r="B33" s="260" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="267"/>
+      <c r="C33" s="261"/>
       <c r="D33" s="166">
         <f t="shared" si="6"/>
         <v>35</v>
@@ -35073,23 +35073,23 @@
         <f t="shared" si="2"/>
         <v>900500</v>
       </c>
-      <c r="K33" s="297"/>
-      <c r="L33" s="298"/>
-      <c r="M33" s="299"/>
+      <c r="K33" s="242"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="244"/>
       <c r="N33" s="98">
         <f t="shared" si="9"/>
         <v>0.5263813506355437</v>
       </c>
-      <c r="O33" s="308">
+      <c r="O33" s="233">
         <f t="shared" si="10"/>
         <v>158.48047667891527</v>
       </c>
-      <c r="P33" s="309"/>
+      <c r="P33" s="234"/>
       <c r="Q33" s="113">
         <f t="shared" si="3"/>
         <v>63822.5987248085</v>
       </c>
-      <c r="R33" s="293"/>
+      <c r="R33" s="238"/>
       <c r="S33" s="114">
         <f t="shared" si="4"/>
         <v>0.5263813506355437</v>
@@ -35102,7 +35102,7 @@
         <f t="shared" si="5"/>
         <v>20163.691318048575</v>
       </c>
-      <c r="V33" s="293"/>
+      <c r="V33" s="238"/>
       <c r="X33" s="45">
         <v>60</v>
       </c>
@@ -35112,10 +35112,10 @@
       <c r="Z33" s="117"/>
     </row>
     <row r="34" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="266" t="s">
+      <c r="B34" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="267"/>
+      <c r="C34" s="261"/>
       <c r="D34" s="166">
         <f t="shared" si="6"/>
         <v>40</v>
@@ -35143,23 +35143,23 @@
         <f t="shared" si="2"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K34" s="297"/>
-      <c r="L34" s="298"/>
-      <c r="M34" s="299"/>
+      <c r="K34" s="242"/>
+      <c r="L34" s="243"/>
+      <c r="M34" s="244"/>
       <c r="N34" s="98">
         <f t="shared" si="9"/>
         <v>0.40568945243912641</v>
       </c>
-      <c r="O34" s="308">
+      <c r="O34" s="233">
         <f t="shared" si="10"/>
         <v>205.10751768744618</v>
       </c>
-      <c r="P34" s="309"/>
+      <c r="P34" s="234"/>
       <c r="Q34" s="113">
         <f t="shared" si="3"/>
         <v>108601.60085618083</v>
       </c>
-      <c r="R34" s="293"/>
+      <c r="R34" s="238"/>
       <c r="S34" s="114">
         <f t="shared" si="4"/>
         <v>0.40568945243912641</v>
@@ -35172,7 +35172,7 @@
         <f t="shared" si="5"/>
         <v>33997.561728397472</v>
       </c>
-      <c r="V34" s="293"/>
+      <c r="V34" s="238"/>
       <c r="W34" s="118"/>
       <c r="X34" s="45">
         <v>50</v>
@@ -35183,10 +35183,10 @@
       <c r="Z34" s="117"/>
     </row>
     <row r="35" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="266" t="s">
+      <c r="B35" s="260" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="267"/>
+      <c r="C35" s="261"/>
       <c r="D35" s="166">
         <f t="shared" si="6"/>
         <v>50</v>
@@ -35214,23 +35214,23 @@
         <f t="shared" si="2"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K35" s="297"/>
-      <c r="L35" s="298"/>
-      <c r="M35" s="299"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="243"/>
+      <c r="M35" s="244"/>
       <c r="N35" s="98">
         <f t="shared" si="9"/>
         <v>0.32072567310354783</v>
       </c>
-      <c r="O35" s="308">
+      <c r="O35" s="233">
         <f t="shared" si="10"/>
         <v>258.97917408412292</v>
       </c>
-      <c r="P35" s="309"/>
+      <c r="P35" s="234"/>
       <c r="Q35" s="113">
         <f t="shared" si="3"/>
         <v>148741.08817057993</v>
       </c>
-      <c r="R35" s="293"/>
+      <c r="R35" s="238"/>
       <c r="S35" s="114">
         <f t="shared" si="4"/>
         <v>0.32072567310354783</v>
@@ -35243,7 +35243,7 @@
         <f t="shared" si="5"/>
         <v>46215.44909843256</v>
       </c>
-      <c r="V35" s="293"/>
+      <c r="V35" s="238"/>
       <c r="W35" s="118"/>
       <c r="X35" s="45">
         <v>45</v>
@@ -35254,10 +35254,10 @@
       <c r="Z35" s="117"/>
     </row>
     <row r="36" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="266" t="s">
+      <c r="B36" s="260" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="267"/>
+      <c r="C36" s="261"/>
       <c r="D36" s="166">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -35285,23 +35285,23 @@
         <f t="shared" si="2"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K36" s="297"/>
-      <c r="L36" s="298"/>
-      <c r="M36" s="299"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="243"/>
+      <c r="M36" s="244"/>
       <c r="N36" s="98">
         <f t="shared" si="9"/>
         <v>0.26969018920408666</v>
       </c>
-      <c r="O36" s="308">
+      <c r="O36" s="233">
         <f t="shared" si="10"/>
         <v>307.65656724842353</v>
       </c>
-      <c r="P36" s="309"/>
+      <c r="P36" s="234"/>
       <c r="Q36" s="113">
         <f t="shared" si="3"/>
         <v>124873.2706612896</v>
       </c>
-      <c r="R36" s="293"/>
+      <c r="R36" s="238"/>
       <c r="S36" s="114">
         <f t="shared" si="4"/>
         <v>0.26969018920408666</v>
@@ -35314,7 +35314,7 @@
         <f t="shared" si="5"/>
         <v>38602.863479905092</v>
       </c>
-      <c r="V36" s="293"/>
+      <c r="V36" s="238"/>
       <c r="W36" s="118"/>
       <c r="X36" s="45">
         <v>40</v>
@@ -35325,10 +35325,10 @@
       <c r="Z36" s="117"/>
     </row>
     <row r="37" spans="2:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="266" t="s">
+      <c r="B37" s="260" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="267"/>
+      <c r="C37" s="261"/>
       <c r="D37" s="166">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -35356,23 +35356,23 @@
         <f t="shared" si="2"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K37" s="300"/>
-      <c r="L37" s="301"/>
-      <c r="M37" s="302"/>
+      <c r="K37" s="245"/>
+      <c r="L37" s="246"/>
+      <c r="M37" s="247"/>
       <c r="N37" s="98">
         <f t="shared" si="9"/>
         <v>0.20820362076378471</v>
       </c>
-      <c r="O37" s="308">
+      <c r="O37" s="233">
         <f t="shared" si="10"/>
         <v>397.99671125964488</v>
       </c>
-      <c r="P37" s="309"/>
+      <c r="P37" s="234"/>
       <c r="Q37" s="113">
         <f t="shared" si="3"/>
         <v>46574.376250155903</v>
       </c>
-      <c r="R37" s="293"/>
+      <c r="R37" s="238"/>
       <c r="S37" s="114">
         <f t="shared" si="4"/>
         <v>0.20820362076378471</v>
@@ -35385,7 +35385,7 @@
         <f t="shared" si="5"/>
         <v>14298.508805057332</v>
       </c>
-      <c r="V37" s="293"/>
+      <c r="V37" s="238"/>
       <c r="W37" s="118"/>
       <c r="X37" s="45">
         <v>35</v>
@@ -35407,7 +35407,7 @@
       <c r="G38" s="126"/>
       <c r="H38" s="5"/>
       <c r="I38" s="118"/>
-      <c r="J38" s="306">
+      <c r="J38" s="255">
         <f>SUM(J29:J37)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -35417,14 +35417,14 @@
       <c r="N38" s="118"/>
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
-      <c r="Q38" s="236">
+      <c r="Q38" s="256">
         <f>SUM(Q29:Q37)</f>
         <v>563399.20576222148</v>
       </c>
       <c r="R38" s="118"/>
       <c r="S38" s="118"/>
       <c r="T38" s="118"/>
-      <c r="U38" s="290">
+      <c r="U38" s="235">
         <f>SUM(U29:U37)</f>
         <v>175900.23263618446</v>
       </c>
@@ -35447,18 +35447,18 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="118"/>
-      <c r="J39" s="236"/>
+      <c r="J39" s="256"/>
       <c r="K39" s="118"/>
       <c r="L39" s="118"/>
       <c r="M39" s="118"/>
       <c r="N39" s="118"/>
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
-      <c r="Q39" s="236"/>
+      <c r="Q39" s="256"/>
       <c r="R39" s="118"/>
       <c r="S39" s="118"/>
       <c r="T39" s="118"/>
-      <c r="U39" s="291"/>
+      <c r="U39" s="236"/>
       <c r="V39" s="118"/>
       <c r="W39" s="118"/>
       <c r="X39" s="45">
@@ -35478,7 +35478,7 @@
       <c r="G40" s="120"/>
       <c r="H40" s="120"/>
       <c r="I40" s="118"/>
-      <c r="J40" s="236"/>
+      <c r="J40" s="256"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6">
@@ -35487,11 +35487,11 @@
       <c r="N40" s="118"/>
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
-      <c r="Q40" s="236"/>
+      <c r="Q40" s="256"/>
       <c r="R40" s="6"/>
       <c r="S40" s="118"/>
       <c r="T40" s="118"/>
-      <c r="U40" s="292"/>
+      <c r="U40" s="237"/>
       <c r="V40" s="6" t="str">
         <f>V29</f>
         <v>0,6356 m</v>
@@ -35579,26 +35579,26 @@
       <c r="Z42" s="117"/>
     </row>
     <row r="43" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="254" t="s">
+      <c r="B43" s="284" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="255"/>
+      <c r="C43" s="286"/>
       <c r="D43" s="134"/>
       <c r="E43" s="93"/>
-      <c r="F43" s="231" t="s">
+      <c r="F43" s="258" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="231" t="s">
+      <c r="G43" s="258" t="s">
         <v>243</v>
       </c>
-      <c r="H43" s="234" t="s">
+      <c r="H43" s="317" t="s">
         <v>258</v>
       </c>
-      <c r="I43" s="235"/>
-      <c r="J43" s="234" t="s">
+      <c r="I43" s="318"/>
+      <c r="J43" s="317" t="s">
         <v>257</v>
       </c>
-      <c r="K43" s="235"/>
+      <c r="K43" s="318"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="118"/>
@@ -35622,22 +35622,22 @@
       <c r="Z43" s="117"/>
     </row>
     <row r="44" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="256"/>
-      <c r="C44" s="257"/>
+      <c r="B44" s="299"/>
+      <c r="C44" s="300"/>
       <c r="D44" s="134"/>
       <c r="E44" s="93"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="231" t="s">
+      <c r="F44" s="298"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="258" t="s">
         <v>205</v>
       </c>
-      <c r="I44" s="231" t="s">
+      <c r="I44" s="258" t="s">
         <v>249</v>
       </c>
-      <c r="J44" s="231" t="s">
+      <c r="J44" s="258" t="s">
         <v>205</v>
       </c>
-      <c r="K44" s="231" t="s">
+      <c r="K44" s="258" t="s">
         <v>249</v>
       </c>
       <c r="L44" s="6"/>
@@ -35661,16 +35661,16 @@
       <c r="Z44" s="117"/>
     </row>
     <row r="45" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="256"/>
-      <c r="C45" s="257"/>
+      <c r="B45" s="299"/>
+      <c r="C45" s="300"/>
       <c r="D45" s="134"/>
       <c r="E45" s="144"/>
-      <c r="F45" s="232"/>
-      <c r="G45" s="232"/>
-      <c r="H45" s="232"/>
-      <c r="I45" s="232"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="232"/>
+      <c r="F45" s="298"/>
+      <c r="G45" s="298"/>
+      <c r="H45" s="298"/>
+      <c r="I45" s="298"/>
+      <c r="J45" s="298"/>
+      <c r="K45" s="298"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="118"/>
@@ -35688,16 +35688,16 @@
       <c r="Z45" s="117"/>
     </row>
     <row r="46" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="258"/>
-      <c r="C46" s="259"/>
+      <c r="B46" s="287"/>
+      <c r="C46" s="289"/>
       <c r="D46" s="134"/>
       <c r="E46" s="93"/>
-      <c r="F46" s="233"/>
-      <c r="G46" s="233"/>
-      <c r="H46" s="233"/>
-      <c r="I46" s="233"/>
-      <c r="J46" s="233"/>
-      <c r="K46" s="233"/>
+      <c r="F46" s="259"/>
+      <c r="G46" s="259"/>
+      <c r="H46" s="259"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="259"/>
+      <c r="K46" s="259"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="118"/>
@@ -35719,11 +35719,11 @@
       <c r="Z46" s="117"/>
     </row>
     <row r="47" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="240" t="str">
+      <c r="B47" s="275" t="str">
         <f t="shared" ref="B47:B55" si="12">B29</f>
         <v>14-20</v>
       </c>
-      <c r="C47" s="241"/>
+      <c r="C47" s="276"/>
       <c r="D47" s="134"/>
       <c r="E47" s="93"/>
       <c r="F47" s="134">
@@ -35771,11 +35771,11 @@
       <c r="Z47" s="117"/>
     </row>
     <row r="48" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="240" t="str">
+      <c r="B48" s="275" t="str">
         <f t="shared" si="12"/>
         <v>20-25</v>
       </c>
-      <c r="C48" s="241"/>
+      <c r="C48" s="276"/>
       <c r="D48" s="134"/>
       <c r="E48" s="93"/>
       <c r="F48" s="134">
@@ -35819,11 +35819,11 @@
       <c r="Z48" s="117"/>
     </row>
     <row r="49" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="240" t="str">
+      <c r="B49" s="275" t="str">
         <f t="shared" si="12"/>
         <v>25-30</v>
       </c>
-      <c r="C49" s="241"/>
+      <c r="C49" s="276"/>
       <c r="D49" s="134"/>
       <c r="E49" s="93"/>
       <c r="F49" s="134">
@@ -35867,11 +35867,11 @@
       <c r="Z49" s="117"/>
     </row>
     <row r="50" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="240" t="str">
+      <c r="B50" s="275" t="str">
         <f t="shared" si="12"/>
         <v>30-35</v>
       </c>
-      <c r="C50" s="241"/>
+      <c r="C50" s="276"/>
       <c r="D50" s="134"/>
       <c r="E50" s="93"/>
       <c r="F50" s="134">
@@ -35915,11 +35915,11 @@
       <c r="Z50" s="117"/>
     </row>
     <row r="51" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="240" t="str">
+      <c r="B51" s="275" t="str">
         <f t="shared" si="12"/>
         <v>35-40</v>
       </c>
-      <c r="C51" s="241"/>
+      <c r="C51" s="276"/>
       <c r="D51" s="134"/>
       <c r="E51" s="93"/>
       <c r="F51" s="134">
@@ -35963,11 +35963,11 @@
       <c r="Z51" s="117"/>
     </row>
     <row r="52" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="240" t="str">
+      <c r="B52" s="275" t="str">
         <f t="shared" si="12"/>
         <v>40-50</v>
       </c>
-      <c r="C52" s="241"/>
+      <c r="C52" s="276"/>
       <c r="D52" s="134"/>
       <c r="E52" s="93"/>
       <c r="F52" s="134">
@@ -36011,11 +36011,11 @@
       <c r="Z52" s="117"/>
     </row>
     <row r="53" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="240" t="str">
+      <c r="B53" s="275" t="str">
         <f t="shared" si="12"/>
         <v>50-60</v>
       </c>
-      <c r="C53" s="241"/>
+      <c r="C53" s="276"/>
       <c r="D53" s="134"/>
       <c r="E53" s="93"/>
       <c r="F53" s="134">
@@ -36059,11 +36059,11 @@
       <c r="Z53" s="117"/>
     </row>
     <row r="54" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="240" t="str">
+      <c r="B54" s="275" t="str">
         <f t="shared" si="12"/>
         <v>60-70</v>
       </c>
-      <c r="C54" s="241"/>
+      <c r="C54" s="276"/>
       <c r="D54" s="134"/>
       <c r="E54" s="93"/>
       <c r="F54" s="134">
@@ -36107,11 +36107,11 @@
       <c r="Z54" s="117"/>
     </row>
     <row r="55" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="240" t="str">
+      <c r="B55" s="275" t="str">
         <f t="shared" si="12"/>
         <v>70-100</v>
       </c>
-      <c r="C55" s="241"/>
+      <c r="C55" s="276"/>
       <c r="D55" s="134"/>
       <c r="E55" s="93"/>
       <c r="F55" s="134">
@@ -36211,20 +36211,20 @@
       <c r="Z57" s="117"/>
     </row>
     <row r="58" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="237"/>
-      <c r="C58" s="237"/>
+      <c r="B58" s="315"/>
+      <c r="C58" s="315"/>
       <c r="D58" s="134"/>
       <c r="E58" s="144"/>
-      <c r="F58" s="230" t="s">
+      <c r="F58" s="257" t="s">
         <v>205</v>
       </c>
-      <c r="G58" s="230" t="s">
+      <c r="G58" s="257" t="s">
         <v>249</v>
       </c>
-      <c r="H58" s="238"/>
-      <c r="I58" s="238"/>
-      <c r="J58" s="238"/>
-      <c r="K58" s="239" t="s">
+      <c r="H58" s="282"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
+      <c r="K58" s="316" t="s">
         <v>253</v>
       </c>
       <c r="L58" s="6"/>
@@ -36244,16 +36244,16 @@
       <c r="Z58" s="117"/>
     </row>
     <row r="59" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="237"/>
-      <c r="C59" s="237"/>
+      <c r="B59" s="315"/>
+      <c r="C59" s="315"/>
       <c r="D59" s="134"/>
       <c r="E59" s="144"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="238"/>
-      <c r="I59" s="238"/>
-      <c r="J59" s="238"/>
-      <c r="K59" s="239"/>
+      <c r="F59" s="257"/>
+      <c r="G59" s="257"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="316"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="118"/>
@@ -36271,16 +36271,16 @@
       <c r="Z59" s="117"/>
     </row>
     <row r="60" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="237"/>
-      <c r="C60" s="237"/>
+      <c r="B60" s="315"/>
+      <c r="C60" s="315"/>
       <c r="D60" s="134"/>
       <c r="E60" s="144"/>
-      <c r="F60" s="230"/>
-      <c r="G60" s="230"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
-      <c r="J60" s="238"/>
-      <c r="K60" s="239"/>
+      <c r="F60" s="257"/>
+      <c r="G60" s="257"/>
+      <c r="H60" s="282"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
+      <c r="K60" s="316"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="118"/>
@@ -36298,16 +36298,16 @@
       <c r="Z60" s="117"/>
     </row>
     <row r="61" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="237"/>
-      <c r="C61" s="237"/>
+      <c r="B61" s="315"/>
+      <c r="C61" s="315"/>
       <c r="D61" s="134"/>
       <c r="E61" s="144"/>
-      <c r="F61" s="230"/>
-      <c r="G61" s="230"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="238"/>
-      <c r="J61" s="238"/>
-      <c r="K61" s="239"/>
+      <c r="F61" s="257"/>
+      <c r="G61" s="257"/>
+      <c r="H61" s="282"/>
+      <c r="I61" s="282"/>
+      <c r="J61" s="282"/>
+      <c r="K61" s="316"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="118"/>
@@ -36325,10 +36325,10 @@
       <c r="Z61" s="117"/>
     </row>
     <row r="62" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="238" t="s">
+      <c r="B62" s="282" t="s">
         <v>251</v>
       </c>
-      <c r="C62" s="238"/>
+      <c r="C62" s="282"/>
       <c r="D62" s="134"/>
       <c r="E62" s="144"/>
       <c r="F62" s="136">
@@ -36339,13 +36339,13 @@
         <f>VLOOKUP(F62,J$47:K$55,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H62" s="236">
+      <c r="H62" s="256">
         <f>(LOG(F62)+((10-G62)/(G63-G62))*LOG(F63/F62))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I62" s="236"/>
-      <c r="J62" s="236"/>
-      <c r="K62" s="238">
+      <c r="I62" s="256"/>
+      <c r="J62" s="256"/>
+      <c r="K62" s="282">
         <f>10^(LOG(F62)+((10-G62)/(G63-G62))*LOG(F63/F62))</f>
         <v>0.2436606799987964</v>
       </c>
@@ -36366,10 +36366,10 @@
       <c r="Z62" s="117"/>
     </row>
     <row r="63" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="238" t="s">
+      <c r="B63" s="282" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="238"/>
+      <c r="C63" s="282"/>
       <c r="D63" s="134"/>
       <c r="E63" s="144"/>
       <c r="F63" s="136">
@@ -36380,10 +36380,10 @@
         <f>VLOOKUP(F63,J$47:K$55,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H63" s="236"/>
-      <c r="I63" s="236"/>
-      <c r="J63" s="236"/>
-      <c r="K63" s="238"/>
+      <c r="H63" s="256"/>
+      <c r="I63" s="256"/>
+      <c r="J63" s="256"/>
+      <c r="K63" s="282"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="118"/>
@@ -36457,20 +36457,20 @@
       <c r="Z65" s="117"/>
     </row>
     <row r="66" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="237"/>
-      <c r="C66" s="237"/>
+      <c r="B66" s="315"/>
+      <c r="C66" s="315"/>
       <c r="D66" s="134"/>
       <c r="E66" s="144"/>
-      <c r="F66" s="230" t="s">
+      <c r="F66" s="257" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="230" t="s">
+      <c r="G66" s="257" t="s">
         <v>249</v>
       </c>
-      <c r="H66" s="238"/>
-      <c r="I66" s="238"/>
-      <c r="J66" s="238"/>
-      <c r="K66" s="239" t="s">
+      <c r="H66" s="282"/>
+      <c r="I66" s="282"/>
+      <c r="J66" s="282"/>
+      <c r="K66" s="316" t="s">
         <v>254</v>
       </c>
       <c r="L66" s="6"/>
@@ -36490,16 +36490,16 @@
       <c r="Z66" s="117"/>
     </row>
     <row r="67" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="237"/>
-      <c r="C67" s="237"/>
+      <c r="B67" s="315"/>
+      <c r="C67" s="315"/>
       <c r="D67" s="134"/>
       <c r="E67" s="144"/>
-      <c r="F67" s="230"/>
-      <c r="G67" s="230"/>
-      <c r="H67" s="238"/>
-      <c r="I67" s="238"/>
-      <c r="J67" s="238"/>
-      <c r="K67" s="239"/>
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="282"/>
+      <c r="I67" s="282"/>
+      <c r="J67" s="282"/>
+      <c r="K67" s="316"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="118"/>
@@ -36517,16 +36517,16 @@
       <c r="Z67" s="117"/>
     </row>
     <row r="68" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="237"/>
-      <c r="C68" s="237"/>
+      <c r="B68" s="315"/>
+      <c r="C68" s="315"/>
       <c r="D68" s="134"/>
       <c r="E68" s="144"/>
-      <c r="F68" s="230"/>
-      <c r="G68" s="230"/>
-      <c r="H68" s="238"/>
-      <c r="I68" s="238"/>
-      <c r="J68" s="238"/>
-      <c r="K68" s="239"/>
+      <c r="F68" s="257"/>
+      <c r="G68" s="257"/>
+      <c r="H68" s="282"/>
+      <c r="I68" s="282"/>
+      <c r="J68" s="282"/>
+      <c r="K68" s="316"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="118"/>
@@ -36544,10 +36544,10 @@
       <c r="Z68" s="117"/>
     </row>
     <row r="69" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="238" t="s">
+      <c r="B69" s="282" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="238"/>
+      <c r="C69" s="282"/>
       <c r="D69" s="134"/>
       <c r="E69" s="144"/>
       <c r="F69" s="136">
@@ -36558,13 +36558,13 @@
         <f>VLOOKUP(F69,J$47:K$55,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H69" s="236">
+      <c r="H69" s="256">
         <f>(LOG(F69)+((60-G69)/(G70-G69))*LOG(F70/F69))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I69" s="236"/>
-      <c r="J69" s="236"/>
-      <c r="K69" s="238">
+      <c r="I69" s="256"/>
+      <c r="J69" s="256"/>
+      <c r="K69" s="282">
         <f>10^(LOG(F69)+((60-G69)/(G70-G69))*LOG(F70/F69))</f>
         <v>0.48008777987655482</v>
       </c>
@@ -36585,10 +36585,10 @@
       <c r="Z69" s="117"/>
     </row>
     <row r="70" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="238" t="s">
+      <c r="B70" s="282" t="s">
         <v>252</v>
       </c>
-      <c r="C70" s="238"/>
+      <c r="C70" s="282"/>
       <c r="D70" s="134"/>
       <c r="E70" s="144"/>
       <c r="F70" s="136">
@@ -36599,10 +36599,10 @@
         <f>VLOOKUP(F70,J$47:K$55,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H70" s="236"/>
-      <c r="I70" s="236"/>
-      <c r="J70" s="236"/>
-      <c r="K70" s="238"/>
+      <c r="H70" s="256"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="256"/>
+      <c r="K70" s="282"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="118"/>
@@ -36676,13 +36676,13 @@
       <c r="Z72" s="117"/>
     </row>
     <row r="73" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="200" t="s">
+      <c r="B73" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="285"/>
-      <c r="D73" s="285"/>
-      <c r="E73" s="285"/>
-      <c r="F73" s="201"/>
+      <c r="C73" s="277"/>
+      <c r="D73" s="277"/>
+      <c r="E73" s="277"/>
+      <c r="F73" s="215"/>
       <c r="G73" s="133"/>
       <c r="H73" s="139">
         <v>1</v>
@@ -36797,8 +36797,8 @@
       <c r="Z75" s="117"/>
     </row>
     <row r="76" spans="2:26" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="276"/>
-      <c r="C76" s="276"/>
+      <c r="B76" s="283"/>
+      <c r="C76" s="283"/>
       <c r="D76" s="137"/>
       <c r="E76" s="5"/>
       <c r="F76" s="138"/>
@@ -36853,15 +36853,15 @@
       <c r="Z77" s="117"/>
     </row>
     <row r="78" spans="2:26" s="42" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="199" t="s">
+      <c r="B78" s="189" t="s">
         <v>267</v>
       </c>
-      <c r="C78" s="199"/>
-      <c r="D78" s="199"/>
-      <c r="E78" s="199"/>
-      <c r="F78" s="199"/>
-      <c r="G78" s="199"/>
-      <c r="H78" s="199"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="189"/>
+      <c r="F78" s="189"/>
+      <c r="G78" s="189"/>
+      <c r="H78" s="189"/>
       <c r="I78" s="119" t="s">
         <v>269</v>
       </c>
@@ -36872,16 +36872,16 @@
         <f>K10*1000</f>
         <v>1.003E-3</v>
       </c>
-      <c r="L78" s="287"/>
-      <c r="M78" s="288"/>
-      <c r="N78" s="288"/>
-      <c r="O78" s="289"/>
-      <c r="P78" s="197" t="s">
+      <c r="L78" s="279"/>
+      <c r="M78" s="280"/>
+      <c r="N78" s="280"/>
+      <c r="O78" s="281"/>
+      <c r="P78" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="Q78" s="197"/>
-      <c r="R78" s="197"/>
-      <c r="S78" s="197"/>
+      <c r="Q78" s="192"/>
+      <c r="R78" s="192"/>
+      <c r="S78" s="192"/>
       <c r="T78" s="118"/>
       <c r="U78" s="148"/>
       <c r="V78" s="6"/>
@@ -36891,15 +36891,15 @@
       <c r="Z78" s="117"/>
     </row>
     <row r="79" spans="2:26" s="141" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="199" t="s">
+      <c r="B79" s="189" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="199"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="199"/>
-      <c r="F79" s="199"/>
-      <c r="G79" s="199"/>
-      <c r="H79" s="199"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="189"/>
+      <c r="E79" s="189"/>
+      <c r="F79" s="189"/>
+      <c r="G79" s="189"/>
+      <c r="H79" s="189"/>
       <c r="I79" s="119" t="s">
         <v>269</v>
       </c>
@@ -36910,14 +36910,14 @@
         <f>K78*1000</f>
         <v>1.0029999999999999</v>
       </c>
-      <c r="L79" s="287"/>
-      <c r="M79" s="288"/>
-      <c r="N79" s="288"/>
-      <c r="O79" s="289"/>
-      <c r="P79" s="287"/>
-      <c r="Q79" s="288"/>
-      <c r="R79" s="288"/>
-      <c r="S79" s="289"/>
+      <c r="L79" s="279"/>
+      <c r="M79" s="280"/>
+      <c r="N79" s="280"/>
+      <c r="O79" s="281"/>
+      <c r="P79" s="279"/>
+      <c r="Q79" s="280"/>
+      <c r="R79" s="280"/>
+      <c r="S79" s="281"/>
       <c r="T79" s="118"/>
       <c r="U79" s="148"/>
       <c r="V79" s="6"/>
@@ -37008,8 +37008,8 @@
       <c r="Z82" s="117"/>
     </row>
     <row r="83" spans="2:27" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="276"/>
-      <c r="C83" s="276"/>
+      <c r="B83" s="283"/>
+      <c r="C83" s="283"/>
       <c r="D83" s="137"/>
       <c r="E83" s="5"/>
       <c r="F83" s="138"/>
@@ -37055,17 +37055,17 @@
         <f>ROUNDUP((0.044*SQRT(K74)),0)</f>
         <v>1</v>
       </c>
-      <c r="L84" s="224"/>
-      <c r="M84" s="225"/>
-      <c r="N84" s="225"/>
-      <c r="O84" s="226"/>
+      <c r="L84" s="269"/>
+      <c r="M84" s="270"/>
+      <c r="N84" s="270"/>
+      <c r="O84" s="271"/>
       <c r="P84" s="147"/>
-      <c r="Q84" s="227" t="s">
+      <c r="Q84" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="R84" s="228"/>
-      <c r="S84" s="228"/>
-      <c r="T84" s="229"/>
+      <c r="R84" s="273"/>
+      <c r="S84" s="273"/>
+      <c r="T84" s="274"/>
       <c r="U84" s="118"/>
       <c r="V84" s="6" t="s">
         <v>231</v>
@@ -37142,15 +37142,15 @@
       <c r="Z86" s="117"/>
     </row>
     <row r="87" spans="2:27" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="227" t="s">
+      <c r="B87" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="228"/>
-      <c r="D87" s="228"/>
-      <c r="E87" s="228"/>
-      <c r="F87" s="228"/>
-      <c r="G87" s="228"/>
-      <c r="H87" s="229"/>
+      <c r="C87" s="273"/>
+      <c r="D87" s="273"/>
+      <c r="E87" s="273"/>
+      <c r="F87" s="273"/>
+      <c r="G87" s="273"/>
+      <c r="H87" s="274"/>
       <c r="I87" s="96" t="s">
         <v>0</v>
       </c>
@@ -37181,15 +37181,15 @@
       <c r="Z87" s="117"/>
     </row>
     <row r="88" spans="2:27" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="227" t="s">
+      <c r="B88" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="228"/>
-      <c r="D88" s="228"/>
-      <c r="E88" s="228"/>
-      <c r="F88" s="228"/>
-      <c r="G88" s="228"/>
-      <c r="H88" s="229"/>
+      <c r="C88" s="273"/>
+      <c r="D88" s="273"/>
+      <c r="E88" s="273"/>
+      <c r="F88" s="273"/>
+      <c r="G88" s="273"/>
+      <c r="H88" s="274"/>
       <c r="I88" s="96" t="s">
         <v>0</v>
       </c>
@@ -37223,15 +37223,15 @@
       <c r="Z88" s="117"/>
     </row>
     <row r="89" spans="2:27" s="141" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="227" t="s">
+      <c r="B89" s="272" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="228"/>
-      <c r="D89" s="228"/>
-      <c r="E89" s="228"/>
-      <c r="F89" s="228"/>
-      <c r="G89" s="228"/>
-      <c r="H89" s="229"/>
+      <c r="C89" s="273"/>
+      <c r="D89" s="273"/>
+      <c r="E89" s="273"/>
+      <c r="F89" s="273"/>
+      <c r="G89" s="273"/>
+      <c r="H89" s="274"/>
       <c r="I89" s="96" t="s">
         <v>192</v>
       </c>
@@ -37352,17 +37352,17 @@
         <f>ROUNDUP((0.044*SQRT(K88)),0)</f>
         <v>4</v>
       </c>
-      <c r="L92" s="224"/>
-      <c r="M92" s="225"/>
-      <c r="N92" s="225"/>
-      <c r="O92" s="226"/>
+      <c r="L92" s="269"/>
+      <c r="M92" s="270"/>
+      <c r="N92" s="270"/>
+      <c r="O92" s="271"/>
       <c r="P92" s="147"/>
-      <c r="Q92" s="227" t="s">
+      <c r="Q92" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="R92" s="228"/>
-      <c r="S92" s="228"/>
-      <c r="T92" s="229"/>
+      <c r="R92" s="273"/>
+      <c r="S92" s="273"/>
+      <c r="T92" s="274"/>
       <c r="U92" s="118"/>
       <c r="V92" s="118"/>
       <c r="W92" s="118"/>
@@ -37422,13 +37422,13 @@
       <c r="Y94" s="110"/>
     </row>
     <row r="95" spans="2:27" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="193" t="s">
+      <c r="B95" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="193"/>
-      <c r="D95" s="193"/>
-      <c r="E95" s="193"/>
-      <c r="F95" s="193"/>
+      <c r="C95" s="218"/>
+      <c r="D95" s="218"/>
+      <c r="E95" s="218"/>
+      <c r="F95" s="218"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -37479,16 +37479,16 @@
       <c r="B97" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="176" t="s">
+      <c r="C97" s="222" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="176"/>
-      <c r="E97" s="176"/>
-      <c r="F97" s="176"/>
-      <c r="G97" s="176"/>
-      <c r="H97" s="176"/>
-      <c r="I97" s="176"/>
-      <c r="J97" s="176"/>
+      <c r="D97" s="222"/>
+      <c r="E97" s="222"/>
+      <c r="F97" s="222"/>
+      <c r="G97" s="222"/>
+      <c r="H97" s="222"/>
+      <c r="I97" s="222"/>
+      <c r="J97" s="222"/>
       <c r="K97" s="110"/>
       <c r="L97" s="110"/>
       <c r="M97" s="110"/>
@@ -37509,16 +37509,16 @@
       <c r="B98" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="176" t="s">
+      <c r="C98" s="222" t="s">
         <v>64</v>
       </c>
-      <c r="D98" s="176"/>
-      <c r="E98" s="176"/>
-      <c r="F98" s="176"/>
-      <c r="G98" s="176"/>
-      <c r="H98" s="176"/>
-      <c r="I98" s="176"/>
-      <c r="J98" s="176"/>
+      <c r="D98" s="222"/>
+      <c r="E98" s="222"/>
+      <c r="F98" s="222"/>
+      <c r="G98" s="222"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
+      <c r="J98" s="222"/>
       <c r="K98" s="110"/>
       <c r="L98" s="110"/>
       <c r="M98" s="110"/>
@@ -37539,16 +37539,16 @@
       <c r="B99" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="286" t="s">
+      <c r="C99" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="D99" s="286"/>
-      <c r="E99" s="286"/>
-      <c r="F99" s="286"/>
-      <c r="G99" s="286"/>
-      <c r="H99" s="286"/>
-      <c r="I99" s="286"/>
-      <c r="J99" s="286"/>
+      <c r="D99" s="278"/>
+      <c r="E99" s="278"/>
+      <c r="F99" s="278"/>
+      <c r="G99" s="278"/>
+      <c r="H99" s="278"/>
+      <c r="I99" s="278"/>
+      <c r="J99" s="278"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
       <c r="M99" s="23"/>
@@ -37572,16 +37572,16 @@
       <c r="B100" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C100" s="176" t="s">
+      <c r="C100" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="176"/>
-      <c r="E100" s="176"/>
-      <c r="F100" s="176"/>
-      <c r="G100" s="176"/>
-      <c r="H100" s="176"/>
-      <c r="I100" s="176"/>
-      <c r="J100" s="176"/>
+      <c r="D100" s="222"/>
+      <c r="E100" s="222"/>
+      <c r="F100" s="222"/>
+      <c r="G100" s="222"/>
+      <c r="H100" s="222"/>
+      <c r="I100" s="222"/>
+      <c r="J100" s="222"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
       <c r="M100" s="23"/>
@@ -37602,16 +37602,16 @@
       <c r="B101" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="176" t="s">
+      <c r="C101" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="D101" s="176"/>
-      <c r="E101" s="176"/>
-      <c r="F101" s="176"/>
-      <c r="G101" s="176"/>
-      <c r="H101" s="176"/>
-      <c r="I101" s="176"/>
-      <c r="J101" s="176"/>
+      <c r="D101" s="222"/>
+      <c r="E101" s="222"/>
+      <c r="F101" s="222"/>
+      <c r="G101" s="222"/>
+      <c r="H101" s="222"/>
+      <c r="I101" s="222"/>
+      <c r="J101" s="222"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
       <c r="M101" s="23"/>
@@ -37632,16 +37632,16 @@
       <c r="B102" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="192" t="s">
+      <c r="C102" s="216" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="192"/>
-      <c r="E102" s="192"/>
-      <c r="F102" s="192"/>
-      <c r="G102" s="192"/>
-      <c r="H102" s="192"/>
-      <c r="I102" s="192"/>
-      <c r="J102" s="192"/>
+      <c r="D102" s="216"/>
+      <c r="E102" s="216"/>
+      <c r="F102" s="216"/>
+      <c r="G102" s="216"/>
+      <c r="H102" s="216"/>
+      <c r="I102" s="216"/>
+      <c r="J102" s="216"/>
       <c r="K102" s="110"/>
       <c r="L102" s="110"/>
       <c r="M102" s="110"/>
@@ -37662,16 +37662,16 @@
       <c r="B103" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C103" s="286" t="s">
+      <c r="C103" s="278" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="286"/>
-      <c r="E103" s="286"/>
-      <c r="F103" s="286"/>
-      <c r="G103" s="286"/>
-      <c r="H103" s="286"/>
-      <c r="I103" s="286"/>
-      <c r="J103" s="286"/>
+      <c r="D103" s="278"/>
+      <c r="E103" s="278"/>
+      <c r="F103" s="278"/>
+      <c r="G103" s="278"/>
+      <c r="H103" s="278"/>
+      <c r="I103" s="278"/>
+      <c r="J103" s="278"/>
       <c r="K103" s="110"/>
       <c r="L103" s="110"/>
       <c r="M103" s="110"/>
@@ -37692,16 +37692,16 @@
       <c r="B104" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="176" t="s">
+      <c r="C104" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="D104" s="176"/>
-      <c r="E104" s="176"/>
-      <c r="F104" s="176"/>
-      <c r="G104" s="176"/>
-      <c r="H104" s="176"/>
-      <c r="I104" s="176"/>
-      <c r="J104" s="176"/>
+      <c r="D104" s="222"/>
+      <c r="E104" s="222"/>
+      <c r="F104" s="222"/>
+      <c r="G104" s="222"/>
+      <c r="H104" s="222"/>
+      <c r="I104" s="222"/>
+      <c r="J104" s="222"/>
       <c r="K104" s="110"/>
       <c r="L104" s="110"/>
       <c r="M104" s="110"/>
@@ -37722,16 +37722,16 @@
       <c r="B105" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C105" s="176" t="s">
+      <c r="C105" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="D105" s="176"/>
-      <c r="E105" s="176"/>
-      <c r="F105" s="176"/>
-      <c r="G105" s="176"/>
-      <c r="H105" s="176"/>
-      <c r="I105" s="176"/>
-      <c r="J105" s="176"/>
+      <c r="D105" s="222"/>
+      <c r="E105" s="222"/>
+      <c r="F105" s="222"/>
+      <c r="G105" s="222"/>
+      <c r="H105" s="222"/>
+      <c r="I105" s="222"/>
+      <c r="J105" s="222"/>
       <c r="K105" s="118"/>
       <c r="L105" s="118"/>
       <c r="M105" s="118"/>
@@ -39394,15 +39394,95 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="L84:O84"/>
+    <mergeCell ref="Q84:T84"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="H58:J61"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="H66:J68"/>
+    <mergeCell ref="K66:K68"/>
+    <mergeCell ref="H69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="K26:M28"/>
+    <mergeCell ref="X25:X28"/>
+    <mergeCell ref="Y25:Y28"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B13:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="C105:J105"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="Q92:T92"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="C100:J100"/>
+    <mergeCell ref="C101:J101"/>
+    <mergeCell ref="C102:J102"/>
+    <mergeCell ref="C103:J103"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C99:J99"/>
+    <mergeCell ref="B87:H87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="L78:O78"/>
+    <mergeCell ref="P78:S78"/>
+    <mergeCell ref="P79:S79"/>
+    <mergeCell ref="L79:O79"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B63:C63"/>
     <mergeCell ref="U38:U40"/>
     <mergeCell ref="R29:R37"/>
     <mergeCell ref="K29:M37"/>
@@ -39427,95 +39507,15 @@
     <mergeCell ref="O26:P28"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C105:J105"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="Q92:T92"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C101:J101"/>
-    <mergeCell ref="C102:J102"/>
-    <mergeCell ref="C103:J103"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="L78:O78"/>
-    <mergeCell ref="P78:S78"/>
-    <mergeCell ref="P79:S79"/>
-    <mergeCell ref="L79:O79"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B13:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="K26:M28"/>
-    <mergeCell ref="X25:X28"/>
-    <mergeCell ref="Y25:Y28"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="S25:V25"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="H58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="H66:J68"/>
-    <mergeCell ref="K66:K68"/>
-    <mergeCell ref="H69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="L84:O84"/>
-    <mergeCell ref="Q84:T84"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
